--- a/sp500_price_target_changes.xlsx
+++ b/sp500_price_target_changes.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -531,31 +531,31 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45454</v>
+        <v>45457</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Upgrade</t>
+          <t>Downgrade</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>DA Davidson</t>
+          <t>Evercore ISI</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Neutral → Buy</t>
+          <t>Outperform → In-line</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>$200 → $230</t>
+          <t>$52 → $39</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>AAPL</t>
+          <t>APA</t>
         </is>
       </c>
     </row>
@@ -565,33 +565,33 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Downgrade</t>
+          <t>Upgrade</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Evercore ISI</t>
+          <t>Keefe Bruyette</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Outperform → In-line</t>
+          <t>Mkt Perform → Outperform</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>$52 → $39</t>
+          <t>$37 → $46</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>APA</t>
+          <t>BAC</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45454</v>
+        <v>45460</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -600,33 +600,37 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Exane BNP Paribas</t>
+          <t>UBS</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Underperform → Neutral</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr"/>
+          <t>Neutral → Buy</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>$85 → $106</t>
+        </is>
+      </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>BBY</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45457</v>
+        <v>45456</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Resumed</t>
+          <t>Initiated</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>BofA Securities</t>
+          <t>Goldman</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -636,117 +640,117 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>$147</t>
+          <t>$3730</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>COP</t>
+          <t>CMG</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45456</v>
+        <v>45457</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Downgrade</t>
+          <t>Resumed</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Morgan Stanley</t>
+          <t>BofA Securities</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Overweight → Equal-Weight</t>
+          <t>Buy</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>$35 → $38</t>
+          <t>$147</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>GLW</t>
+          <t>COP</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45457</v>
+        <v>45460</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Resumed</t>
+          <t>Upgrade</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>BofA Securities</t>
+          <t>Fox Advisors</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Buy</t>
+          <t>Equal Weight → Overweight</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>$34</t>
+          <t>$45</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>CTRA</t>
+          <t>GLW</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45454</v>
+        <v>45456</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Reiterated</t>
+          <t>Downgrade</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>BMO Capital Markets</t>
+          <t>Morgan Stanley</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Outperform</t>
+          <t>Overweight → Equal-Weight</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>$75</t>
+          <t>$35 → $38</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>DAY</t>
+          <t>GLW</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45456</v>
+        <v>45457</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Initiated</t>
+          <t>Resumed</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Goldman</t>
+          <t>BofA Securities</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -756,18 +760,18 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>$612</t>
+          <t>$34</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>DPZ</t>
+          <t>CTRA</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45455</v>
+        <v>45456</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -776,118 +780,118 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Wells Fargo</t>
+          <t>Goldman</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Overweight</t>
+          <t>Buy</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>$180</t>
+          <t>$612</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>FI</t>
+          <t>DPZ</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45456</v>
+        <v>45457</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Initiated</t>
+          <t>Downgrade</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Argus</t>
+          <t>Piper Sandler</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Buy</t>
+          <t>Neutral → Underweight</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>$190</t>
+          <t>$13.50 → $11.50</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>GEV</t>
+          <t>HBAN</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45454</v>
+        <v>45456</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Initiated</t>
+          <t>Reiterated</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Citigroup</t>
+          <t>Jefferies</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Neutral</t>
+          <t>Buy</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>$183</t>
+          <t>$770</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>GEV</t>
+          <t>INTU</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45456</v>
+        <v>45455</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Downgrade</t>
+          <t>Upgrade</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Janney</t>
+          <t>Citigroup</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Buy → Neutral</t>
+          <t>Sell → Neutral</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>$126 → $154</t>
+          <t>$68 → $69</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>GNRC</t>
+          <t>MKC</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45455</v>
+        <v>45456</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -896,88 +900,88 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Wells Fargo</t>
+          <t>Goldman</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Equal Weight</t>
+          <t>Neutral</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>$100</t>
+          <t>$288</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>GPN</t>
+          <t>MCD</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45457</v>
+        <v>45455</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Upgrade</t>
+          <t>Reiterated</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>BofA Securities</t>
+          <t>BMO Capital Markets</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Neutral → Buy</t>
+          <t>Market Perform</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>$70 → $80</t>
+          <t>$450</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>HAS</t>
+          <t>META</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45457</v>
+        <v>45456</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Downgrade</t>
+          <t>Upgrade</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Piper Sandler</t>
+          <t>Janney</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Neutral → Underweight</t>
+          <t>Neutral → Buy</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>$13.50 → $11.50</t>
+          <t>$150</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>HBAN</t>
+          <t>MAA</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45456</v>
+        <v>45460</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -986,7 +990,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Jefferies</t>
+          <t>Stifel</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -996,18 +1000,18 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>$770</t>
+          <t>$63 → $57</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>INTU</t>
+          <t>MNST</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45456</v>
+        <v>45460</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1016,22 +1020,22 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>BofA Securities</t>
+          <t>UBS</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Underperform → Buy</t>
+          <t>Neutral → Buy</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>$115 → $160</t>
+          <t>$40 → $50</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>KMB</t>
+          <t>NEM</t>
         </is>
       </c>
     </row>
@@ -1041,27 +1045,27 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Upgrade</t>
+          <t>Downgrade</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Citigroup</t>
+          <t>Mizuho</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Sell → Neutral</t>
+          <t>Buy → Neutral</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>$68 → $69</t>
+          <t>$71</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>MKC</t>
+          <t>NEE</t>
         </is>
       </c>
     </row>
@@ -1071,57 +1075,53 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Initiated</t>
+          <t>Resumed</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Goldman</t>
+          <t>Deutsche Bank</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Neutral</t>
+          <t>Buy</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>$288</t>
+          <t>$115</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>MCD</t>
+          <t>NKE</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45455</v>
+        <v>45456</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Reiterated</t>
+          <t>Downgrade</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>BMO Capital Markets</t>
+          <t>Wolfe Research</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Market Perform</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>$450</t>
-        </is>
-      </c>
+          <t>Outperform → Peer Perform</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr">
         <is>
-          <t>META</t>
+          <t>ROP</t>
         </is>
       </c>
     </row>
@@ -1131,343 +1131,55 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Upgrade</t>
+          <t>Downgrade</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Janney</t>
+          <t>Goldman</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Neutral → Buy</t>
+          <t>Buy → Neutral</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>$150</t>
+          <t>$88 → $83</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>MAA</t>
+          <t>WRB</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45455</v>
+        <v>45456</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Downgrade</t>
+          <t>Upgrade</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Mizuho</t>
+          <t>Exane BNP Paribas</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Buy → Neutral</t>
+          <t>Underperform → Neutral</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>$71</t>
+          <t>$305</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
-        <is>
-          <t>NEE</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>45456</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Resumed</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Deutsche Bank</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>$115</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>NKE</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>45455</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Downgrade</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Wells Fargo</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>Equal Weight → Underweight</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>$14 → $9</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>PARA</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>45455</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Initiated</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>KeyBanc Capital Markets</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>Sector Weight</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>45454</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Upgrade</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Exane BNP Paribas</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>Underperform → Outperform</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>$80</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>RHI</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>45456</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Downgrade</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>Wolfe Research</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>Outperform → Peer Perform</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>ROP</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>45456</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Initiated</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>Goldman</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>$100</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>SBUX</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>45455</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Reiterated</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>Citigroup</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>Neutral</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>TSLA</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>45456</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Downgrade</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>Goldman</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>Buy → Neutral</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>$88 → $83</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>WRB</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>45456</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Initiated</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>Goldman</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>Neutral</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>$150</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>YUM</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>45456</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Upgrade</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>Exane BNP Paribas</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>Underperform → Neutral</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>$305</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
         <is>
           <t>ZBRA</t>
         </is>
